--- a/wbs.xlsx
+++ b/wbs.xlsx
@@ -684,23 +684,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -718,248 +707,53 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1233,7 +1027,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1243,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="F180" sqref="F180"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1286,10 +1080,10 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1306,8 +1100,8 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="36"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1322,8 +1116,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="36"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1338,16 +1132,16 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="36"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="1">
         <v>100</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
         <v>50</v>
       </c>
       <c r="G5" s="1"/>
@@ -1356,8 +1150,8 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="36"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1374,22 +1168,22 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="36"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="5" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="36"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1406,8 +1200,8 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="36"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1422,8 +1216,8 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="36"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,14 +1232,14 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="36"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
       <c r="G11" s="1">
         <v>150</v>
       </c>
@@ -1454,26 +1248,26 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="37"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8">
         <v>15</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="11" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="10">
         <v>1.1000000000000001</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1490,8 +1284,8 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="36"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1506,8 +1300,8 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="36"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1522,8 +1316,8 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="36"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1538,8 +1332,8 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="36"/>
-      <c r="B17" s="25"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1554,8 +1348,8 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="36"/>
-      <c r="B18" s="25"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="1" t="s">
         <v>192</v>
       </c>
@@ -1570,32 +1364,32 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="36"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="4" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="1">
         <v>120</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="I19" s="22"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="37"/>
-      <c r="B20" s="15" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8">
         <v>10</v>
       </c>
       <c r="H20" s="5" t="s">
@@ -1603,10 +1397,10 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1623,8 +1417,8 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="36"/>
-      <c r="B22" s="25"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="1" t="s">
         <v>26</v>
       </c>
@@ -1639,8 +1433,8 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="36"/>
-      <c r="B23" s="25"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="1" t="s">
         <v>27</v>
       </c>
@@ -1655,8 +1449,8 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="36"/>
-      <c r="B24" s="25"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1671,8 +1465,8 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="36"/>
-      <c r="B25" s="25"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="1" t="s">
         <v>29</v>
       </c>
@@ -1687,8 +1481,8 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="36"/>
-      <c r="B26" s="25"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="1" t="s">
         <v>30</v>
       </c>
@@ -1703,8 +1497,8 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="36"/>
-      <c r="B27" s="25"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="1" t="s">
         <v>31</v>
       </c>
@@ -1719,8 +1513,8 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="36"/>
-      <c r="B28" s="26"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="1" t="s">
         <v>32</v>
       </c>
@@ -1735,7 +1529,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="36"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="1" t="s">
         <v>46</v>
       </c>
@@ -1751,7 +1545,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="36"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="1" t="s">
         <v>34</v>
       </c>
@@ -1767,7 +1561,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="36"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="1" t="s">
         <v>35</v>
       </c>
@@ -1783,7 +1577,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="36"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="1" t="s">
         <v>36</v>
       </c>
@@ -1799,7 +1593,7 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="36"/>
+      <c r="A33" s="10"/>
       <c r="B33" s="1" t="s">
         <v>37</v>
       </c>
@@ -1817,7 +1611,7 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="36"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="1" t="s">
         <v>39</v>
       </c>
@@ -1833,10 +1627,11 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="36"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1848,23 +1643,23 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="37"/>
-      <c r="B36" s="16" t="s">
+      <c r="A36" s="10"/>
+      <c r="B36" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8">
         <v>20</v>
       </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
       <c r="H36" s="5" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1882,8 +1677,8 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="36"/>
-      <c r="B38" s="24" t="s">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1900,8 +1695,8 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="36"/>
-      <c r="B39" s="25"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
       <c r="C39" s="1" t="s">
         <v>44</v>
       </c>
@@ -1916,8 +1711,8 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="36"/>
-      <c r="B40" s="26"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
       <c r="C40" s="1" t="s">
         <v>45</v>
       </c>
@@ -1932,7 +1727,7 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="36"/>
+      <c r="A41" s="10"/>
       <c r="B41" s="1" t="s">
         <v>47</v>
       </c>
@@ -1948,10 +1743,11 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="36"/>
+      <c r="A42" s="10"/>
       <c r="B42" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1">
         <v>60</v>
@@ -1963,26 +1759,26 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="37"/>
-      <c r="B43" s="16" t="s">
+      <c r="A43" s="10"/>
+      <c r="B43" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16">
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8">
         <v>10</v>
       </c>
-      <c r="G43" s="16"/>
+      <c r="G43" s="8"/>
       <c r="H43" s="5" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1999,8 +1795,8 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="36"/>
-      <c r="B45" s="25"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
       <c r="C45" s="1" t="s">
         <v>51</v>
       </c>
@@ -2015,8 +1811,8 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="36"/>
-      <c r="B46" s="25"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
       <c r="C46" s="1" t="s">
         <v>52</v>
       </c>
@@ -2031,8 +1827,8 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="36"/>
-      <c r="B47" s="25"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
       <c r="C47" s="1" t="s">
         <v>53</v>
       </c>
@@ -2047,8 +1843,8 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="36"/>
-      <c r="B48" s="25"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
       <c r="C48" s="1" t="s">
         <v>54</v>
       </c>
@@ -2063,8 +1859,8 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A49" s="36"/>
-      <c r="B49" s="25"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
       <c r="C49" s="1" t="s">
         <v>55</v>
       </c>
@@ -2079,8 +1875,8 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A50" s="36"/>
-      <c r="B50" s="26"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
       <c r="C50" s="1" t="s">
         <v>193</v>
       </c>
@@ -2095,8 +1891,8 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A51" s="36"/>
-      <c r="B51" s="19" t="s">
+      <c r="A51" s="10"/>
+      <c r="B51" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C51" s="1"/>
@@ -2111,15 +1907,15 @@
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="37"/>
-      <c r="B52" s="16" t="s">
+      <c r="A52" s="10"/>
+      <c r="B52" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16">
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8">
         <v>15</v>
       </c>
       <c r="H52" s="5" t="s">
@@ -2127,10 +1923,10 @@
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C53" s="1"/>
@@ -2145,8 +1941,8 @@
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="36"/>
-      <c r="B54" s="26"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
       <c r="C54" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +1957,8 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="36"/>
-      <c r="B55" s="24" t="s">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -2179,8 +1975,8 @@
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="36"/>
-      <c r="B56" s="25"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
       <c r="C56" s="1" t="s">
         <v>61</v>
       </c>
@@ -2195,8 +1991,8 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="36"/>
-      <c r="B57" s="25"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
       <c r="C57" s="1" t="s">
         <v>62</v>
       </c>
@@ -2211,8 +2007,8 @@
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="36"/>
-      <c r="B58" s="25"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
       <c r="C58" s="1" t="s">
         <v>63</v>
       </c>
@@ -2227,8 +2023,8 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="36"/>
-      <c r="B59" s="25"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
       <c r="C59" s="1" t="s">
         <v>64</v>
       </c>
@@ -2243,8 +2039,8 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="36"/>
-      <c r="B60" s="25"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
       <c r="C60" s="1" t="s">
         <v>65</v>
       </c>
@@ -2259,8 +2055,8 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="36"/>
-      <c r="B61" s="26"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
       <c r="C61" s="1" t="s">
         <v>194</v>
       </c>
@@ -2275,7 +2071,7 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="36"/>
+      <c r="A62" s="10"/>
       <c r="B62" s="1" t="s">
         <v>66</v>
       </c>
@@ -2291,7 +2087,7 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="36"/>
+      <c r="A63" s="10"/>
       <c r="B63" s="1" t="s">
         <v>67</v>
       </c>
@@ -2307,7 +2103,7 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="36"/>
+      <c r="A64" s="10"/>
       <c r="B64" s="1" t="s">
         <v>68</v>
       </c>
@@ -2323,7 +2119,7 @@
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="36"/>
+      <c r="A65" s="10"/>
       <c r="B65" s="1" t="s">
         <v>199</v>
       </c>
@@ -2339,28 +2135,28 @@
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="37"/>
-      <c r="B66" s="16" t="s">
+      <c r="A66" s="10"/>
+      <c r="B66" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16">
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8">
         <v>7</v>
       </c>
-      <c r="F66" s="16">
+      <c r="F66" s="8">
         <v>7</v>
       </c>
-      <c r="G66" s="16"/>
+      <c r="G66" s="8"/>
       <c r="H66" s="5" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="35" t="s">
+      <c r="A67" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="B67" s="24">
+      <c r="B67" s="10">
         <v>6.1</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -2377,8 +2173,8 @@
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="36"/>
-      <c r="B68" s="25"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
       <c r="C68" s="1" t="s">
         <v>70</v>
       </c>
@@ -2393,8 +2189,8 @@
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="36"/>
-      <c r="B69" s="25"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
       <c r="C69" s="1" t="s">
         <v>71</v>
       </c>
@@ -2409,8 +2205,8 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="36"/>
-      <c r="B70" s="26"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
       <c r="C70" s="1" t="s">
         <v>72</v>
       </c>
@@ -2425,8 +2221,8 @@
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="36"/>
-      <c r="B71" s="19" t="s">
+      <c r="A71" s="10"/>
+      <c r="B71" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C71" s="1"/>
@@ -2441,15 +2237,15 @@
       </c>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="37"/>
-      <c r="B72" s="16" t="s">
+      <c r="A72" s="10"/>
+      <c r="B72" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16">
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8">
         <v>5</v>
       </c>
       <c r="H72" s="5" t="s">
@@ -2457,10 +2253,10 @@
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="35" t="s">
+      <c r="A73" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B73" s="24">
+      <c r="B73" s="10">
         <v>7.1</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -2477,8 +2273,8 @@
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="36"/>
-      <c r="B74" s="25"/>
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
       <c r="C74" s="1" t="s">
         <v>74</v>
       </c>
@@ -2493,8 +2289,8 @@
       </c>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="36"/>
-      <c r="B75" s="25"/>
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
       <c r="C75" s="1" t="s">
         <v>75</v>
       </c>
@@ -2509,8 +2305,8 @@
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="36"/>
-      <c r="B76" s="25"/>
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
       <c r="C76" s="1" t="s">
         <v>76</v>
       </c>
@@ -2525,8 +2321,8 @@
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="36"/>
-      <c r="B77" s="26"/>
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
       <c r="C77" s="1" t="s">
         <v>77</v>
       </c>
@@ -2541,8 +2337,8 @@
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="36"/>
-      <c r="B78" s="19" t="s">
+      <c r="A78" s="10"/>
+      <c r="B78" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C78" s="1"/>
@@ -2557,23 +2353,23 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="37"/>
-      <c r="B79" s="16" t="s">
+      <c r="A79" s="10"/>
+      <c r="B79" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16">
-        <v>5</v>
-      </c>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8">
+        <v>5</v>
+      </c>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
       <c r="H79" s="5" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="35" t="s">
+      <c r="A80" s="10" t="s">
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -2591,7 +2387,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="36"/>
+      <c r="A81" s="10"/>
       <c r="B81" s="1" t="s">
         <v>199</v>
       </c>
@@ -2607,29 +2403,30 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="37"/>
-      <c r="B82" s="16" t="s">
+      <c r="A82" s="10"/>
+      <c r="B82" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16">
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8">
         <v>3</v>
       </c>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
       <c r="H82" s="5" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="35" t="s">
+      <c r="A83" s="10" t="s">
         <v>80</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1">
         <v>7</v>
@@ -2640,7 +2437,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="36"/>
+      <c r="A84" s="10"/>
       <c r="B84" s="1" t="s">
         <v>82</v>
       </c>
@@ -2656,7 +2453,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="36"/>
+      <c r="A85" s="10"/>
       <c r="B85" s="1" t="s">
         <v>199</v>
       </c>
@@ -2672,26 +2469,26 @@
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="37"/>
-      <c r="B86" s="16" t="s">
+      <c r="A86" s="10"/>
+      <c r="B86" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16">
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8">
         <v>7</v>
       </c>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
       <c r="H86" s="5" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="35" t="s">
+      <c r="A87" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B87" s="27" t="s">
+      <c r="B87" s="12" t="s">
         <v>201</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -2710,8 +2507,8 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="36"/>
-      <c r="B88" s="28"/>
+      <c r="A88" s="10"/>
+      <c r="B88" s="12"/>
       <c r="C88" s="1" t="s">
         <v>85</v>
       </c>
@@ -2728,8 +2525,8 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="36"/>
-      <c r="B89" s="28"/>
+      <c r="A89" s="10"/>
+      <c r="B89" s="12"/>
       <c r="C89" s="1" t="s">
         <v>86</v>
       </c>
@@ -2746,8 +2543,8 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="36"/>
-      <c r="B90" s="28"/>
+      <c r="A90" s="10"/>
+      <c r="B90" s="12"/>
       <c r="C90" s="1" t="s">
         <v>87</v>
       </c>
@@ -2764,8 +2561,8 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="36"/>
-      <c r="B91" s="28"/>
+      <c r="A91" s="10"/>
+      <c r="B91" s="12"/>
       <c r="C91" s="1" t="s">
         <v>88</v>
       </c>
@@ -2782,8 +2579,8 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="36"/>
-      <c r="B92" s="28"/>
+      <c r="A92" s="10"/>
+      <c r="B92" s="12"/>
       <c r="C92" s="1" t="s">
         <v>89</v>
       </c>
@@ -2800,8 +2597,8 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="36"/>
-      <c r="B93" s="28"/>
+      <c r="A93" s="10"/>
+      <c r="B93" s="12"/>
       <c r="C93" s="1" t="s">
         <v>90</v>
       </c>
@@ -2818,24 +2615,25 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="36"/>
-      <c r="B94" s="29"/>
-      <c r="C94" s="4" t="s">
+      <c r="A94" s="10"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D94" s="30"/>
-      <c r="E94" s="30"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
       <c r="F94" s="1">
         <v>60</v>
       </c>
+      <c r="G94" s="1"/>
       <c r="H94" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="I94" s="22"/>
+      <c r="I94" s="9"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="36"/>
-      <c r="B95" s="24" t="s">
+      <c r="A95" s="10"/>
+      <c r="B95" s="10" t="s">
         <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -2852,8 +2650,8 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="36"/>
-      <c r="B96" s="25"/>
+      <c r="A96" s="10"/>
+      <c r="B96" s="10"/>
       <c r="C96" s="1" t="s">
         <v>93</v>
       </c>
@@ -2868,8 +2666,8 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="36"/>
-      <c r="B97" s="25"/>
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
       <c r="C97" s="1" t="s">
         <v>94</v>
       </c>
@@ -2884,8 +2682,8 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="36"/>
-      <c r="B98" s="25"/>
+      <c r="A98" s="10"/>
+      <c r="B98" s="10"/>
       <c r="C98" s="1" t="s">
         <v>95</v>
       </c>
@@ -2900,8 +2698,8 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="36"/>
-      <c r="B99" s="25"/>
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
       <c r="C99" s="1" t="s">
         <v>96</v>
       </c>
@@ -2916,8 +2714,8 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="36"/>
-      <c r="B100" s="25"/>
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
       <c r="C100" s="1" t="s">
         <v>97</v>
       </c>
@@ -2932,8 +2730,8 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="36"/>
-      <c r="B101" s="25"/>
+      <c r="A101" s="10"/>
+      <c r="B101" s="10"/>
       <c r="C101" s="1" t="s">
         <v>98</v>
       </c>
@@ -2948,8 +2746,8 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="36"/>
-      <c r="B102" s="25"/>
+      <c r="A102" s="10"/>
+      <c r="B102" s="10"/>
       <c r="C102" s="1" t="s">
         <v>99</v>
       </c>
@@ -2964,8 +2762,8 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="36"/>
-      <c r="B103" s="25"/>
+      <c r="A103" s="10"/>
+      <c r="B103" s="10"/>
       <c r="C103" s="1" t="s">
         <v>100</v>
       </c>
@@ -2980,25 +2778,25 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="36"/>
-      <c r="B104" s="26"/>
-      <c r="C104" s="4" t="s">
+      <c r="A104" s="10"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D104" s="30"/>
-      <c r="E104" s="30">
+      <c r="D104" s="1"/>
+      <c r="E104" s="1">
         <v>40</v>
       </c>
-      <c r="F104" s="30"/>
-      <c r="G104" s="30"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
       <c r="H104" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="I104" s="22"/>
+      <c r="I104" s="9"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="36"/>
-      <c r="B105" s="24" t="s">
+      <c r="A105" s="10"/>
+      <c r="B105" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -3015,8 +2813,8 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="36"/>
-      <c r="B106" s="25"/>
+      <c r="A106" s="10"/>
+      <c r="B106" s="10"/>
       <c r="C106" s="1" t="s">
         <v>103</v>
       </c>
@@ -3031,8 +2829,8 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="36"/>
-      <c r="B107" s="26"/>
+      <c r="A107" s="10"/>
+      <c r="B107" s="10"/>
       <c r="C107" s="1" t="s">
         <v>199</v>
       </c>
@@ -3047,8 +2845,8 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="36"/>
-      <c r="B108" s="24" t="s">
+      <c r="A108" s="10"/>
+      <c r="B108" s="10" t="s">
         <v>104</v>
       </c>
       <c r="C108" s="1" t="s">
@@ -3065,8 +2863,8 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="36"/>
-      <c r="B109" s="25"/>
+      <c r="A109" s="10"/>
+      <c r="B109" s="10"/>
       <c r="C109" s="1" t="s">
         <v>106</v>
       </c>
@@ -3081,8 +2879,8 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="36"/>
-      <c r="B110" s="25"/>
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
       <c r="C110" s="1" t="s">
         <v>107</v>
       </c>
@@ -3097,8 +2895,8 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="36"/>
-      <c r="B111" s="26"/>
+      <c r="A111" s="10"/>
+      <c r="B111" s="10"/>
       <c r="C111" s="1" t="s">
         <v>199</v>
       </c>
@@ -3113,17 +2911,17 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="37"/>
-      <c r="B112" s="16" t="s">
+      <c r="A112" s="10"/>
+      <c r="B112" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C112" s="16"/>
-      <c r="D112" s="16">
+      <c r="C112" s="8"/>
+      <c r="D112" s="8">
         <v>10</v>
       </c>
-      <c r="E112" s="16"/>
-      <c r="F112" s="16"/>
-      <c r="G112" s="16">
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8">
         <v>30</v>
       </c>
       <c r="H112" s="5" t="s">
@@ -3131,10 +2929,10 @@
       </c>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="35" t="s">
+      <c r="A113" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B113" s="24" t="s">
+      <c r="B113" s="10" t="s">
         <v>109</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -3151,8 +2949,8 @@
       </c>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="36"/>
-      <c r="B114" s="25"/>
+      <c r="A114" s="10"/>
+      <c r="B114" s="10"/>
       <c r="C114" s="1" t="s">
         <v>111</v>
       </c>
@@ -3167,8 +2965,8 @@
       </c>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="36"/>
-      <c r="B115" s="25"/>
+      <c r="A115" s="10"/>
+      <c r="B115" s="10"/>
       <c r="C115" s="1" t="s">
         <v>112</v>
       </c>
@@ -3183,8 +2981,8 @@
       </c>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="36"/>
-      <c r="B116" s="25"/>
+      <c r="A116" s="10"/>
+      <c r="B116" s="10"/>
       <c r="C116" s="1" t="s">
         <v>123</v>
       </c>
@@ -3199,8 +2997,8 @@
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="36"/>
-      <c r="B117" s="25"/>
+      <c r="A117" s="10"/>
+      <c r="B117" s="10"/>
       <c r="C117" s="1" t="s">
         <v>124</v>
       </c>
@@ -3215,8 +3013,8 @@
       </c>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="36"/>
-      <c r="B118" s="26"/>
+      <c r="A118" s="10"/>
+      <c r="B118" s="10"/>
       <c r="C118" s="1" t="s">
         <v>199</v>
       </c>
@@ -3231,8 +3029,8 @@
       </c>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="36"/>
-      <c r="B119" s="24" t="s">
+      <c r="A119" s="10"/>
+      <c r="B119" s="10" t="s">
         <v>113</v>
       </c>
       <c r="C119" s="1" t="s">
@@ -3249,8 +3047,8 @@
       </c>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="36"/>
-      <c r="B120" s="25"/>
+      <c r="A120" s="10"/>
+      <c r="B120" s="10"/>
       <c r="C120" s="1" t="s">
         <v>115</v>
       </c>
@@ -3265,8 +3063,8 @@
       </c>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="36"/>
-      <c r="B121" s="25"/>
+      <c r="A121" s="10"/>
+      <c r="B121" s="10"/>
       <c r="C121" s="1" t="s">
         <v>116</v>
       </c>
@@ -3281,8 +3079,8 @@
       </c>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="36"/>
-      <c r="B122" s="25"/>
+      <c r="A122" s="10"/>
+      <c r="B122" s="10"/>
       <c r="C122" s="1" t="s">
         <v>117</v>
       </c>
@@ -3297,8 +3095,8 @@
       </c>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="36"/>
-      <c r="B123" s="25"/>
+      <c r="A123" s="10"/>
+      <c r="B123" s="10"/>
       <c r="C123" s="1" t="s">
         <v>118</v>
       </c>
@@ -3313,8 +3111,8 @@
       </c>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="36"/>
-      <c r="B124" s="25"/>
+      <c r="A124" s="10"/>
+      <c r="B124" s="10"/>
       <c r="C124" s="1" t="s">
         <v>119</v>
       </c>
@@ -3329,8 +3127,8 @@
       </c>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="36"/>
-      <c r="B125" s="25"/>
+      <c r="A125" s="10"/>
+      <c r="B125" s="10"/>
       <c r="C125" s="1" t="s">
         <v>120</v>
       </c>
@@ -3345,8 +3143,8 @@
       </c>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="36"/>
-      <c r="B126" s="25"/>
+      <c r="A126" s="10"/>
+      <c r="B126" s="10"/>
       <c r="C126" s="1" t="s">
         <v>121</v>
       </c>
@@ -3361,8 +3159,8 @@
       </c>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="36"/>
-      <c r="B127" s="25"/>
+      <c r="A127" s="10"/>
+      <c r="B127" s="10"/>
       <c r="C127" s="1" t="s">
         <v>122</v>
       </c>
@@ -3377,8 +3175,8 @@
       </c>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="36"/>
-      <c r="B128" s="25"/>
+      <c r="A128" s="10"/>
+      <c r="B128" s="10"/>
       <c r="C128" s="1" t="s">
         <v>125</v>
       </c>
@@ -3393,8 +3191,8 @@
       </c>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="36"/>
-      <c r="B129" s="25"/>
+      <c r="A129" s="10"/>
+      <c r="B129" s="10"/>
       <c r="C129" s="1" t="s">
         <v>126</v>
       </c>
@@ -3409,8 +3207,8 @@
       </c>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="36"/>
-      <c r="B130" s="25"/>
+      <c r="A130" s="10"/>
+      <c r="B130" s="10"/>
       <c r="C130" s="1" t="s">
         <v>127</v>
       </c>
@@ -3425,8 +3223,8 @@
       </c>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="36"/>
-      <c r="B131" s="25"/>
+      <c r="A131" s="10"/>
+      <c r="B131" s="10"/>
       <c r="C131" s="1" t="s">
         <v>128</v>
       </c>
@@ -3441,8 +3239,8 @@
       </c>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="36"/>
-      <c r="B132" s="26"/>
+      <c r="A132" s="10"/>
+      <c r="B132" s="10"/>
       <c r="C132" s="1" t="s">
         <v>199</v>
       </c>
@@ -3457,7 +3255,7 @@
       </c>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="36"/>
+      <c r="A133" s="10"/>
       <c r="B133" s="1" t="s">
         <v>129</v>
       </c>
@@ -3473,8 +3271,8 @@
       </c>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="36"/>
-      <c r="B134" s="24" t="s">
+      <c r="A134" s="10"/>
+      <c r="B134" s="10" t="s">
         <v>138</v>
       </c>
       <c r="C134" s="1" t="s">
@@ -3491,8 +3289,8 @@
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="36"/>
-      <c r="B135" s="25"/>
+      <c r="A135" s="10"/>
+      <c r="B135" s="10"/>
       <c r="C135" s="1" t="s">
         <v>131</v>
       </c>
@@ -3507,8 +3305,8 @@
       </c>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="36"/>
-      <c r="B136" s="25"/>
+      <c r="A136" s="10"/>
+      <c r="B136" s="10"/>
       <c r="C136" s="1" t="s">
         <v>132</v>
       </c>
@@ -3523,8 +3321,8 @@
       </c>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="36"/>
-      <c r="B137" s="25"/>
+      <c r="A137" s="10"/>
+      <c r="B137" s="10"/>
       <c r="C137" s="1" t="s">
         <v>133</v>
       </c>
@@ -3539,8 +3337,8 @@
       </c>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="36"/>
-      <c r="B138" s="25"/>
+      <c r="A138" s="10"/>
+      <c r="B138" s="10"/>
       <c r="C138" s="1" t="s">
         <v>134</v>
       </c>
@@ -3555,8 +3353,8 @@
       </c>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="36"/>
-      <c r="B139" s="25"/>
+      <c r="A139" s="10"/>
+      <c r="B139" s="10"/>
       <c r="C139" s="1" t="s">
         <v>135</v>
       </c>
@@ -3571,8 +3369,8 @@
       </c>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="36"/>
-      <c r="B140" s="25"/>
+      <c r="A140" s="10"/>
+      <c r="B140" s="10"/>
       <c r="C140" s="1" t="s">
         <v>136</v>
       </c>
@@ -3587,8 +3385,8 @@
       </c>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="36"/>
-      <c r="B141" s="25"/>
+      <c r="A141" s="10"/>
+      <c r="B141" s="10"/>
       <c r="C141" s="1" t="s">
         <v>137</v>
       </c>
@@ -3603,8 +3401,8 @@
       </c>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="36"/>
-      <c r="B142" s="25"/>
+      <c r="A142" s="10"/>
+      <c r="B142" s="10"/>
       <c r="C142" s="1" t="s">
         <v>139</v>
       </c>
@@ -3619,8 +3417,8 @@
       </c>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="36"/>
-      <c r="B143" s="25"/>
+      <c r="A143" s="10"/>
+      <c r="B143" s="10"/>
       <c r="C143" s="1" t="s">
         <v>140</v>
       </c>
@@ -3635,8 +3433,8 @@
       </c>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="36"/>
-      <c r="B144" s="25"/>
+      <c r="A144" s="10"/>
+      <c r="B144" s="10"/>
       <c r="C144" s="1" t="s">
         <v>141</v>
       </c>
@@ -3651,8 +3449,8 @@
       </c>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="36"/>
-      <c r="B145" s="25"/>
+      <c r="A145" s="10"/>
+      <c r="B145" s="10"/>
       <c r="C145" s="1" t="s">
         <v>142</v>
       </c>
@@ -3667,8 +3465,8 @@
       </c>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="36"/>
-      <c r="B146" s="25"/>
+      <c r="A146" s="10"/>
+      <c r="B146" s="10"/>
       <c r="C146" s="1" t="s">
         <v>143</v>
       </c>
@@ -3683,8 +3481,8 @@
       </c>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="36"/>
-      <c r="B147" s="26"/>
+      <c r="A147" s="10"/>
+      <c r="B147" s="10"/>
       <c r="C147" s="1" t="s">
         <v>199</v>
       </c>
@@ -3701,25 +3499,25 @@
       </c>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="37"/>
-      <c r="B148" s="16" t="s">
+      <c r="A148" s="10"/>
+      <c r="B148" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C148" s="16"/>
-      <c r="D148" s="16"/>
-      <c r="E148" s="16">
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8">
         <v>30</v>
       </c>
-      <c r="F148" s="16">
+      <c r="F148" s="8">
         <v>15</v>
       </c>
-      <c r="G148" s="16"/>
+      <c r="G148" s="8"/>
       <c r="H148" s="5" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="35" t="s">
+      <c r="A149" s="10" t="s">
         <v>144</v>
       </c>
       <c r="B149" s="1" t="s">
@@ -3737,8 +3535,8 @@
       </c>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="36"/>
-      <c r="B150" s="24" t="s">
+      <c r="A150" s="10"/>
+      <c r="B150" s="10" t="s">
         <v>146</v>
       </c>
       <c r="C150" s="1" t="s">
@@ -3755,8 +3553,8 @@
       </c>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="36"/>
-      <c r="B151" s="25"/>
+      <c r="A151" s="10"/>
+      <c r="B151" s="10"/>
       <c r="C151" s="1" t="s">
         <v>148</v>
       </c>
@@ -3771,8 +3569,8 @@
       </c>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="36"/>
-      <c r="B152" s="25"/>
+      <c r="A152" s="10"/>
+      <c r="B152" s="10"/>
       <c r="C152" s="1" t="s">
         <v>149</v>
       </c>
@@ -3787,8 +3585,8 @@
       </c>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="36"/>
-      <c r="B153" s="25"/>
+      <c r="A153" s="10"/>
+      <c r="B153" s="10"/>
       <c r="C153" s="1" t="s">
         <v>150</v>
       </c>
@@ -3803,8 +3601,8 @@
       </c>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="36"/>
-      <c r="B154" s="26"/>
+      <c r="A154" s="10"/>
+      <c r="B154" s="10"/>
       <c r="C154" s="1" t="s">
         <v>199</v>
       </c>
@@ -3819,21 +3617,21 @@
       </c>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="37"/>
-      <c r="B155" s="16" t="s">
+      <c r="A155" s="10"/>
+      <c r="B155" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C155" s="16"/>
-      <c r="D155" s="16"/>
-      <c r="E155" s="16"/>
-      <c r="F155" s="16"/>
-      <c r="G155" s="16"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
       <c r="H155" s="5" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="31" t="s">
+      <c r="A156" s="13" t="s">
         <v>151</v>
       </c>
       <c r="B156" s="1" t="s">
@@ -3851,7 +3649,7 @@
       </c>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="32"/>
+      <c r="A157" s="13"/>
       <c r="B157" s="1" t="s">
         <v>153</v>
       </c>
@@ -3867,7 +3665,7 @@
       </c>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="32"/>
+      <c r="A158" s="13"/>
       <c r="B158" s="1" t="s">
         <v>154</v>
       </c>
@@ -3883,7 +3681,7 @@
       </c>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="32"/>
+      <c r="A159" s="13"/>
       <c r="B159" s="1" t="s">
         <v>155</v>
       </c>
@@ -3899,7 +3697,7 @@
       </c>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="32"/>
+      <c r="A160" s="13"/>
       <c r="B160" s="1" t="s">
         <v>156</v>
       </c>
@@ -3915,7 +3713,7 @@
       </c>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="38"/>
+      <c r="A161" s="13"/>
       <c r="B161" s="1" t="s">
         <v>199</v>
       </c>
@@ -3929,23 +3727,23 @@
       <c r="H161" s="5"/>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="34"/>
-      <c r="B162" s="16" t="s">
+      <c r="A162" s="1"/>
+      <c r="B162" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C162" s="16"/>
-      <c r="D162" s="16">
+      <c r="C162" s="8"/>
+      <c r="D162" s="8">
         <v>10</v>
       </c>
-      <c r="E162" s="16"/>
-      <c r="F162" s="16"/>
-      <c r="G162" s="16"/>
+      <c r="E162" s="8"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8"/>
       <c r="H162" s="5" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="35" t="s">
+      <c r="A163" s="10" t="s">
         <v>157</v>
       </c>
       <c r="B163" s="1" t="s">
@@ -3965,7 +3763,7 @@
       </c>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="36"/>
+      <c r="A164" s="10"/>
       <c r="B164" s="1" t="s">
         <v>159</v>
       </c>
@@ -3983,7 +3781,7 @@
       </c>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="36"/>
+      <c r="A165" s="10"/>
       <c r="B165" s="1" t="s">
         <v>199</v>
       </c>
@@ -3997,23 +3795,23 @@
       <c r="H165" s="5"/>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="37"/>
-      <c r="B166" s="16" t="s">
+      <c r="A166" s="10"/>
+      <c r="B166" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C166" s="16"/>
-      <c r="D166" s="16"/>
-      <c r="E166" s="16"/>
-      <c r="F166" s="16">
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="8">
         <v>3</v>
       </c>
-      <c r="G166" s="16"/>
+      <c r="G166" s="8"/>
       <c r="H166" s="5" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="31" t="s">
+      <c r="A167" s="13" t="s">
         <v>162</v>
       </c>
       <c r="B167" s="1" t="s">
@@ -4033,7 +3831,8 @@
       </c>
     </row>
     <row r="168" spans="1:8">
-      <c r="B168" s="24" t="s">
+      <c r="A168" s="1"/>
+      <c r="B168" s="10" t="s">
         <v>165</v>
       </c>
       <c r="C168" s="1" t="s">
@@ -4050,8 +3849,8 @@
       </c>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="32"/>
-      <c r="B169" s="25"/>
+      <c r="A169" s="13"/>
+      <c r="B169" s="10"/>
       <c r="C169" s="1" t="s">
         <v>167</v>
       </c>
@@ -4066,8 +3865,8 @@
       </c>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="32"/>
-      <c r="B170" s="25"/>
+      <c r="A170" s="13"/>
+      <c r="B170" s="10"/>
       <c r="C170" s="1" t="s">
         <v>168</v>
       </c>
@@ -4082,8 +3881,8 @@
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="32"/>
-      <c r="B171" s="26"/>
+      <c r="A171" s="13"/>
+      <c r="B171" s="10"/>
       <c r="C171" s="1" t="s">
         <v>169</v>
       </c>
@@ -4098,7 +3897,7 @@
       </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="32"/>
+      <c r="A172" s="13"/>
       <c r="B172" s="1" t="s">
         <v>170</v>
       </c>
@@ -4116,7 +3915,7 @@
       </c>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="32"/>
+      <c r="A173" s="13"/>
       <c r="B173" s="1" t="s">
         <v>172</v>
       </c>
@@ -4132,7 +3931,7 @@
       </c>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="32"/>
+      <c r="A174" s="13"/>
       <c r="B174" s="1" t="s">
         <v>173</v>
       </c>
@@ -4148,7 +3947,7 @@
       </c>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="32"/>
+      <c r="A175" s="13"/>
       <c r="B175" s="1" t="s">
         <v>174</v>
       </c>
@@ -4164,7 +3963,7 @@
       </c>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176" s="40"/>
+      <c r="A176" s="13"/>
       <c r="B176" s="1" t="s">
         <v>199</v>
       </c>
@@ -4182,25 +3981,26 @@
       </c>
     </row>
     <row r="177" spans="1:8">
-      <c r="B177" s="16" t="s">
+      <c r="A177" s="1"/>
+      <c r="B177" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C177" s="16"/>
-      <c r="D177" s="16">
+      <c r="C177" s="8"/>
+      <c r="D177" s="8">
         <v>10</v>
       </c>
-      <c r="E177" s="16"/>
-      <c r="F177" s="16"/>
-      <c r="G177" s="16"/>
+      <c r="E177" s="8"/>
+      <c r="F177" s="8"/>
+      <c r="G177" s="8"/>
       <c r="H177" s="5" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="31" t="s">
+      <c r="A178" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="B178" s="24" t="s">
+      <c r="B178" s="10" t="s">
         <v>176</v>
       </c>
       <c r="C178" s="1" t="s">
@@ -4217,8 +4017,8 @@
       </c>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="32"/>
-      <c r="B179" s="26"/>
+      <c r="A179" s="13"/>
+      <c r="B179" s="10"/>
       <c r="C179" s="1" t="s">
         <v>178</v>
       </c>
@@ -4233,7 +4033,7 @@
       </c>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="32"/>
+      <c r="A180" s="13"/>
       <c r="B180" s="1" t="s">
         <v>179</v>
       </c>
@@ -4251,8 +4051,8 @@
       </c>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="32"/>
-      <c r="B181" s="24" t="s">
+      <c r="A181" s="13"/>
+      <c r="B181" s="10" t="s">
         <v>181</v>
       </c>
       <c r="C181" s="1" t="s">
@@ -4269,8 +4069,8 @@
       </c>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="32"/>
-      <c r="B182" s="25"/>
+      <c r="A182" s="13"/>
+      <c r="B182" s="10"/>
       <c r="C182" s="1" t="s">
         <v>183</v>
       </c>
@@ -4285,8 +4085,8 @@
       </c>
     </row>
     <row r="183" spans="1:8">
-      <c r="A183" s="32"/>
-      <c r="B183" s="26"/>
+      <c r="A183" s="13"/>
+      <c r="B183" s="10"/>
       <c r="C183" s="1" t="s">
         <v>184</v>
       </c>
@@ -4301,7 +4101,7 @@
       </c>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184" s="32"/>
+      <c r="A184" s="13"/>
       <c r="B184" s="1" t="s">
         <v>185</v>
       </c>
@@ -4317,7 +4117,7 @@
       </c>
     </row>
     <row r="185" spans="1:8">
-      <c r="A185" s="33"/>
+      <c r="A185" s="13"/>
       <c r="B185" s="1" t="s">
         <v>186</v>
       </c>
@@ -4335,7 +4135,7 @@
       </c>
     </row>
     <row r="186" spans="1:8">
-      <c r="A186" s="41"/>
+      <c r="A186" s="13"/>
       <c r="B186" s="1" t="s">
         <v>199</v>
       </c>
@@ -4353,26 +4153,27 @@
       </c>
     </row>
     <row r="187" spans="1:8">
-      <c r="A187" s="20" t="s">
+      <c r="A187" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B187" s="16" t="s">
+      <c r="B187" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C187" s="16"/>
-      <c r="D187" s="16"/>
-      <c r="E187" s="16"/>
-      <c r="F187" s="16">
+      <c r="C187" s="8"/>
+      <c r="D187" s="8"/>
+      <c r="E187" s="8"/>
+      <c r="F187" s="8">
         <v>10</v>
       </c>
-      <c r="G187" s="16"/>
+      <c r="G187" s="8"/>
       <c r="H187" s="5" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="188" spans="1:8">
-      <c r="B188" s="20"/>
-      <c r="C188" s="21"/>
+      <c r="A188" s="1"/>
+      <c r="B188" s="6"/>
+      <c r="C188" s="6"/>
       <c r="D188" s="6">
         <f>SUM(D2:D187)</f>
         <v>899</v>
@@ -4389,35 +4190,60 @@
         <f>SUM(G2:G187)</f>
         <v>898</v>
       </c>
+      <c r="H188" s="14"/>
     </row>
     <row r="189" spans="1:8">
-      <c r="B189" s="8"/>
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
       <c r="C189" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D189" s="9">
+      <c r="D189" s="6">
         <v>141</v>
       </c>
-      <c r="E189" s="9"/>
-      <c r="F189" s="9"/>
-      <c r="G189" s="10"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="6"/>
+      <c r="H189" s="14"/>
     </row>
     <row r="190" spans="1:8">
-      <c r="B190" s="23"/>
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
       <c r="C190" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="D190" s="17">
+      <c r="D190" s="6">
         <f>SUM(D188:G188, D189)</f>
         <v>3731</v>
       </c>
-      <c r="E190" s="17"/>
-      <c r="F190" s="17"/>
-      <c r="G190" s="18"/>
+      <c r="E190" s="6"/>
+      <c r="F190" s="6"/>
+      <c r="G190" s="6"/>
+      <c r="H190" s="14"/>
     </row>
     <row r="192" spans="1:8" ht="14.1" customHeight="1"/>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A87:A112"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A73:A79"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="B181:B183"/>
+    <mergeCell ref="B55:B61"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="B113:B118"/>
+    <mergeCell ref="B119:B132"/>
+    <mergeCell ref="B134:B147"/>
+    <mergeCell ref="B150:B154"/>
+    <mergeCell ref="B168:B171"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="B87:B94"/>
+    <mergeCell ref="B95:B104"/>
+    <mergeCell ref="B105:B107"/>
     <mergeCell ref="A113:A148"/>
     <mergeCell ref="A149:A155"/>
     <mergeCell ref="A163:A166"/>
@@ -4432,30 +4258,10 @@
     <mergeCell ref="A44:A52"/>
     <mergeCell ref="A53:A66"/>
     <mergeCell ref="A67:A72"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="B181:B183"/>
-    <mergeCell ref="B55:B61"/>
-    <mergeCell ref="B108:B111"/>
-    <mergeCell ref="B113:B118"/>
-    <mergeCell ref="B119:B132"/>
-    <mergeCell ref="B134:B147"/>
-    <mergeCell ref="B150:B154"/>
-    <mergeCell ref="B168:B171"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="B87:B94"/>
-    <mergeCell ref="B95:B104"/>
-    <mergeCell ref="B105:B107"/>
     <mergeCell ref="B21:B28"/>
     <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A73:A79"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A87:A112"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/wbs.xlsx
+++ b/wbs.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandra\Desktop\GitHub\Bank-Account-Management-Application\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="204">
   <si>
     <t>Task</t>
   </si>
@@ -625,13 +630,19 @@
   </si>
   <si>
     <t>10.1 .1 view own details (admin &amp; user)</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>in progress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,7 +657,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -683,6 +694,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -711,7 +734,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -740,20 +763,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -815,7 +844,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -850,7 +879,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1027,21 +1056,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="H133" sqref="H133:H146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.7109375" style="4" bestFit="1" customWidth="1"/>
@@ -1049,11 +1078,11 @@
     <col min="4" max="4" width="10.140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" style="4"/>
     <col min="6" max="7" width="10.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="7"/>
+    <col min="8" max="8" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1079,11 +1108,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1095,13 +1124,13 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
+      <c r="H2" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1111,13 +1140,13 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="H3" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1127,13 +1156,13 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="H4" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="1" t="s">
         <v>199</v>
       </c>
@@ -1145,13 +1174,13 @@
         <v>50</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10" t="s">
+      <c r="H5" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1163,13 +1192,13 @@
         <v>60</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+      <c r="H6" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="1" t="s">
         <v>200</v>
       </c>
@@ -1177,13 +1206,13 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10" t="s">
+      <c r="H7" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15" t="s">
         <v>196</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1195,13 +1224,13 @@
       <c r="G8" s="1">
         <v>15</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
+      <c r="H8" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1211,13 +1240,13 @@
       <c r="G9" s="1">
         <v>7</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
+      <c r="H9" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1227,13 +1256,13 @@
       <c r="G10" s="1">
         <v>5</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
+      <c r="H10" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="1" t="s">
         <v>199</v>
       </c>
@@ -1243,12 +1272,12 @@
       <c r="G11" s="1">
         <v>150</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="10"/>
+      <c r="H11" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
       <c r="B12" s="8" t="s">
         <v>195</v>
       </c>
@@ -1259,15 +1288,15 @@
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="11" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="10" t="s">
+      <c r="H12" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="15">
         <v>1.1000000000000001</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1279,13 +1308,13 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+      <c r="H13" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1295,13 +1324,13 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+      <c r="H14" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1311,13 +1340,13 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
+      <c r="H15" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1331,9 +1360,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1343,13 +1372,13 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
+      <c r="H17" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="1" t="s">
         <v>192</v>
       </c>
@@ -1359,13 +1388,13 @@
       <c r="G18" s="1">
         <v>7</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+      <c r="H18" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="1" t="s">
         <v>199</v>
       </c>
@@ -1375,13 +1404,13 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="5" t="s">
-        <v>187</v>
+      <c r="H19" s="14" t="s">
+        <v>203</v>
       </c>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="10"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
       <c r="B20" s="8" t="s">
         <v>195</v>
       </c>
@@ -1396,11 +1425,11 @@
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1412,13 +1441,13 @@
       <c r="G21" s="1">
         <v>5</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
+      <c r="H21" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="1" t="s">
         <v>26</v>
       </c>
@@ -1428,13 +1457,13 @@
       <c r="G22" s="1">
         <v>5</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
+      <c r="H22" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="1" t="s">
         <v>27</v>
       </c>
@@ -1444,13 +1473,13 @@
       <c r="G23" s="1">
         <v>5</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
+      <c r="H23" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1460,13 +1489,13 @@
       <c r="G24" s="1">
         <v>5</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
+      <c r="H24" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="1" t="s">
         <v>29</v>
       </c>
@@ -1476,13 +1505,13 @@
       <c r="G25" s="1">
         <v>5</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
+      <c r="H25" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="1" t="s">
         <v>30</v>
       </c>
@@ -1492,13 +1521,13 @@
       <c r="G26" s="1">
         <v>5</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
+      <c r="H26" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="1" t="s">
         <v>31</v>
       </c>
@@ -1508,13 +1537,13 @@
       <c r="G27" s="1">
         <v>5</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
+      <c r="H27" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="1" t="s">
         <v>32</v>
       </c>
@@ -1524,12 +1553,12 @@
       <c r="G28" s="1">
         <v>5</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="10"/>
+      <c r="H28" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
       <c r="B29" s="1" t="s">
         <v>46</v>
       </c>
@@ -1540,12 +1569,12 @@
       <c r="G29" s="1">
         <v>5</v>
       </c>
-      <c r="H29" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="10"/>
+      <c r="H29" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
       <c r="B30" s="1" t="s">
         <v>34</v>
       </c>
@@ -1556,12 +1585,12 @@
       <c r="G30" s="1">
         <v>10</v>
       </c>
-      <c r="H30" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="10"/>
+      <c r="H30" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
       <c r="B31" s="1" t="s">
         <v>35</v>
       </c>
@@ -1572,12 +1601,12 @@
         <v>5</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="10"/>
+      <c r="H31" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
       <c r="B32" s="1" t="s">
         <v>36</v>
       </c>
@@ -1592,8 +1621,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="10"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
       <c r="B33" s="1" t="s">
         <v>37</v>
       </c>
@@ -1606,12 +1635,12 @@
         <v>30</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="10"/>
+      <c r="H33" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
       <c r="B34" s="1" t="s">
         <v>39</v>
       </c>
@@ -1622,12 +1651,12 @@
       <c r="G34" s="1">
         <v>5</v>
       </c>
-      <c r="H34" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="10"/>
+      <c r="H34" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
       <c r="B35" s="1" t="s">
         <v>199</v>
       </c>
@@ -1638,12 +1667,12 @@
       <c r="G35" s="1">
         <v>240</v>
       </c>
-      <c r="H35" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="10"/>
+      <c r="H35" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
       <c r="B36" s="8" t="s">
         <v>195</v>
       </c>
@@ -1658,8 +1687,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="10" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1676,9 +1705,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1694,9 +1723,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="1" t="s">
         <v>44</v>
       </c>
@@ -1710,9 +1739,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
       <c r="C40" s="1" t="s">
         <v>45</v>
       </c>
@@ -1726,8 +1755,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="10"/>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
       <c r="B41" s="1" t="s">
         <v>47</v>
       </c>
@@ -1742,8 +1771,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="10"/>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
       <c r="B42" s="1" t="s">
         <v>199</v>
       </c>
@@ -1758,8 +1787,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="10"/>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
       <c r="B43" s="8" t="s">
         <v>195</v>
       </c>
@@ -1774,11 +1803,11 @@
         <v>187</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="10" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="15" t="s">
         <v>49</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1790,13 +1819,13 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
+      <c r="H44" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
       <c r="C45" s="1" t="s">
         <v>51</v>
       </c>
@@ -1806,13 +1835,13 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
+      <c r="H45" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
       <c r="C46" s="1" t="s">
         <v>52</v>
       </c>
@@ -1822,13 +1851,13 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
+      <c r="H46" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
       <c r="C47" s="1" t="s">
         <v>53</v>
       </c>
@@ -1838,13 +1867,13 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
+      <c r="H47" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
       <c r="C48" s="1" t="s">
         <v>54</v>
       </c>
@@ -1854,13 +1883,13 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
+      <c r="H48" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
       <c r="C49" s="1" t="s">
         <v>55</v>
       </c>
@@ -1870,13 +1899,13 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
+      <c r="H49" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
       <c r="C50" s="1" t="s">
         <v>193</v>
       </c>
@@ -1886,12 +1915,12 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A51" s="10"/>
+      <c r="H50" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
       <c r="B51" s="1" t="s">
         <v>199</v>
       </c>
@@ -1902,12 +1931,12 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="10"/>
+      <c r="H51" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
       <c r="B52" s="8" t="s">
         <v>195</v>
       </c>
@@ -1922,11 +1951,11 @@
         <v>187</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="10" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C53" s="1"/>
@@ -1936,13 +1965,13 @@
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
+      <c r="H53" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
       <c r="C54" s="1" t="s">
         <v>59</v>
       </c>
@@ -1952,13 +1981,13 @@
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10" t="s">
+      <c r="H54" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="15"/>
+      <c r="B55" s="15" t="s">
         <v>58</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -1970,13 +1999,13 @@
       <c r="G55" s="1">
         <v>5</v>
       </c>
-      <c r="H55" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
+      <c r="H55" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
       <c r="C56" s="1" t="s">
         <v>61</v>
       </c>
@@ -1986,13 +2015,13 @@
       <c r="G56" s="1">
         <v>5</v>
       </c>
-      <c r="H56" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
+      <c r="H56" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
       <c r="C57" s="1" t="s">
         <v>62</v>
       </c>
@@ -2002,13 +2031,13 @@
       <c r="G57" s="1">
         <v>5</v>
       </c>
-      <c r="H57" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
+      <c r="H57" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
       <c r="C58" s="1" t="s">
         <v>63</v>
       </c>
@@ -2018,13 +2047,13 @@
       <c r="G58" s="1">
         <v>5</v>
       </c>
-      <c r="H58" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
+      <c r="H58" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
       <c r="C59" s="1" t="s">
         <v>64</v>
       </c>
@@ -2034,13 +2063,13 @@
       <c r="G59" s="1">
         <v>5</v>
       </c>
-      <c r="H59" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
+      <c r="H59" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
       <c r="C60" s="1" t="s">
         <v>65</v>
       </c>
@@ -2050,13 +2079,13 @@
       <c r="G60" s="1">
         <v>5</v>
       </c>
-      <c r="H60" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
+      <c r="H60" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
       <c r="C61" s="1" t="s">
         <v>194</v>
       </c>
@@ -2066,12 +2095,12 @@
       <c r="G61" s="1">
         <v>5</v>
       </c>
-      <c r="H61" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="10"/>
+      <c r="H61" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="15"/>
       <c r="B62" s="1" t="s">
         <v>66</v>
       </c>
@@ -2082,12 +2111,12 @@
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="10"/>
+      <c r="H62" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
       <c r="B63" s="1" t="s">
         <v>67</v>
       </c>
@@ -2098,12 +2127,12 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-      <c r="H63" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="10"/>
+      <c r="H63" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
       <c r="B64" s="1" t="s">
         <v>68</v>
       </c>
@@ -2114,12 +2143,12 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="10"/>
+      <c r="H64" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="15"/>
       <c r="B65" s="1" t="s">
         <v>199</v>
       </c>
@@ -2130,12 +2159,12 @@
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="10"/>
+      <c r="H65" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="15"/>
       <c r="B66" s="8" t="s">
         <v>195</v>
       </c>
@@ -2152,11 +2181,11 @@
         <v>187</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="10" t="s">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B67" s="15">
         <v>6.1</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -2168,13 +2197,13 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="H67" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
+      <c r="H67" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
       <c r="C68" s="1" t="s">
         <v>70</v>
       </c>
@@ -2184,13 +2213,13 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
+      <c r="H68" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
       <c r="C69" s="1" t="s">
         <v>71</v>
       </c>
@@ -2200,13 +2229,13 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
+      <c r="H69" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
       <c r="C70" s="1" t="s">
         <v>72</v>
       </c>
@@ -2216,12 +2245,12 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-      <c r="H70" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="10"/>
+      <c r="H70" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="15"/>
       <c r="B71" s="1" t="s">
         <v>199</v>
       </c>
@@ -2232,12 +2261,12 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="10"/>
+      <c r="H71" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="15"/>
       <c r="B72" s="8" t="s">
         <v>195</v>
       </c>
@@ -2252,11 +2281,11 @@
         <v>187</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="10" t="s">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="B73" s="10">
+      <c r="B73" s="15">
         <v>7.1</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -2268,13 +2297,13 @@
         <v>5</v>
       </c>
       <c r="G73" s="1"/>
-      <c r="H73" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
+      <c r="H73" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
       <c r="C74" s="1" t="s">
         <v>74</v>
       </c>
@@ -2284,13 +2313,13 @@
         <v>5</v>
       </c>
       <c r="G74" s="1"/>
-      <c r="H74" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10"/>
+      <c r="H74" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="15"/>
+      <c r="B75" s="15"/>
       <c r="C75" s="1" t="s">
         <v>75</v>
       </c>
@@ -2300,13 +2329,13 @@
         <v>5</v>
       </c>
       <c r="G75" s="1"/>
-      <c r="H75" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
+      <c r="H75" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
       <c r="C76" s="1" t="s">
         <v>76</v>
       </c>
@@ -2316,13 +2345,13 @@
         <v>5</v>
       </c>
       <c r="G76" s="1"/>
-      <c r="H76" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10"/>
+      <c r="H76" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="15"/>
+      <c r="B77" s="15"/>
       <c r="C77" s="1" t="s">
         <v>77</v>
       </c>
@@ -2332,12 +2361,12 @@
         <v>5</v>
       </c>
       <c r="G77" s="1"/>
-      <c r="H77" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="10"/>
+      <c r="H77" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="15"/>
       <c r="B78" s="1" t="s">
         <v>199</v>
       </c>
@@ -2348,12 +2377,12 @@
         <v>40</v>
       </c>
       <c r="G78" s="1"/>
-      <c r="H78" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="10"/>
+      <c r="H78" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="15"/>
       <c r="B79" s="8" t="s">
         <v>195</v>
       </c>
@@ -2368,8 +2397,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="10" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="15" t="s">
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -2386,8 +2415,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="10"/>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="15"/>
       <c r="B81" s="1" t="s">
         <v>199</v>
       </c>
@@ -2402,8 +2431,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="10"/>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="15"/>
       <c r="B82" s="8" t="s">
         <v>195</v>
       </c>
@@ -2418,8 +2447,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="10" t="s">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="15" t="s">
         <v>80</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -2436,8 +2465,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="10"/>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="15"/>
       <c r="B84" s="1" t="s">
         <v>82</v>
       </c>
@@ -2452,8 +2481,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="10"/>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="15"/>
       <c r="B85" s="1" t="s">
         <v>199</v>
       </c>
@@ -2468,8 +2497,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="10"/>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="15"/>
       <c r="B86" s="8" t="s">
         <v>195</v>
       </c>
@@ -2484,11 +2513,11 @@
         <v>187</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="10" t="s">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="16" t="s">
         <v>201</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -2502,13 +2531,13 @@
       <c r="G87" s="1">
         <v>5</v>
       </c>
-      <c r="H87" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="10"/>
-      <c r="B88" s="12"/>
+      <c r="H87" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="15"/>
+      <c r="B88" s="16"/>
       <c r="C88" s="1" t="s">
         <v>85</v>
       </c>
@@ -2520,13 +2549,13 @@
       <c r="G88" s="1">
         <v>5</v>
       </c>
-      <c r="H88" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="10"/>
-      <c r="B89" s="12"/>
+      <c r="H88" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="15"/>
+      <c r="B89" s="16"/>
       <c r="C89" s="1" t="s">
         <v>86</v>
       </c>
@@ -2538,13 +2567,13 @@
       <c r="G89" s="1">
         <v>5</v>
       </c>
-      <c r="H89" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="10"/>
-      <c r="B90" s="12"/>
+      <c r="H89" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="15"/>
+      <c r="B90" s="16"/>
       <c r="C90" s="1" t="s">
         <v>87</v>
       </c>
@@ -2556,13 +2585,13 @@
       <c r="G90" s="1">
         <v>5</v>
       </c>
-      <c r="H90" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="10"/>
-      <c r="B91" s="12"/>
+      <c r="H90" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="15"/>
+      <c r="B91" s="16"/>
       <c r="C91" s="1" t="s">
         <v>88</v>
       </c>
@@ -2574,13 +2603,13 @@
       <c r="G91" s="1">
         <v>5</v>
       </c>
-      <c r="H91" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="10"/>
-      <c r="B92" s="12"/>
+      <c r="H91" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="15"/>
+      <c r="B92" s="16"/>
       <c r="C92" s="1" t="s">
         <v>89</v>
       </c>
@@ -2592,13 +2621,13 @@
       <c r="G92" s="1">
         <v>5</v>
       </c>
-      <c r="H92" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="10"/>
-      <c r="B93" s="12"/>
+      <c r="H92" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="15"/>
+      <c r="B93" s="16"/>
       <c r="C93" s="1" t="s">
         <v>90</v>
       </c>
@@ -2610,13 +2639,13 @@
       <c r="G93" s="1">
         <v>5</v>
       </c>
-      <c r="H93" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="10"/>
-      <c r="B94" s="12"/>
+      <c r="H93" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="15"/>
+      <c r="B94" s="16"/>
       <c r="C94" s="1" t="s">
         <v>199</v>
       </c>
@@ -2626,14 +2655,14 @@
         <v>60</v>
       </c>
       <c r="G94" s="1"/>
-      <c r="H94" s="5" t="s">
-        <v>187</v>
+      <c r="H94" s="13" t="s">
+        <v>202</v>
       </c>
       <c r="I94" s="9"/>
     </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="10"/>
-      <c r="B95" s="10" t="s">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="15"/>
+      <c r="B95" s="15" t="s">
         <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -2645,13 +2674,13 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-      <c r="H95" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="10"/>
-      <c r="B96" s="10"/>
+      <c r="H95" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="15"/>
+      <c r="B96" s="15"/>
       <c r="C96" s="1" t="s">
         <v>93</v>
       </c>
@@ -2661,13 +2690,13 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-      <c r="H96" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="10"/>
-      <c r="B97" s="10"/>
+      <c r="H96" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="15"/>
+      <c r="B97" s="15"/>
       <c r="C97" s="1" t="s">
         <v>94</v>
       </c>
@@ -2677,13 +2706,13 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
-      <c r="H97" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="10"/>
-      <c r="B98" s="10"/>
+      <c r="H97" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="15"/>
+      <c r="B98" s="15"/>
       <c r="C98" s="1" t="s">
         <v>95</v>
       </c>
@@ -2693,13 +2722,13 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-      <c r="H98" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10"/>
+      <c r="H98" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="15"/>
+      <c r="B99" s="15"/>
       <c r="C99" s="1" t="s">
         <v>96</v>
       </c>
@@ -2709,13 +2738,13 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-      <c r="H99" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="10"/>
-      <c r="B100" s="10"/>
+      <c r="H99" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="15"/>
+      <c r="B100" s="15"/>
       <c r="C100" s="1" t="s">
         <v>97</v>
       </c>
@@ -2725,13 +2754,13 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
-      <c r="H100" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="10"/>
-      <c r="B101" s="10"/>
+      <c r="H100" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="15"/>
+      <c r="B101" s="15"/>
       <c r="C101" s="1" t="s">
         <v>98</v>
       </c>
@@ -2741,13 +2770,13 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
-      <c r="H101" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="10"/>
-      <c r="B102" s="10"/>
+      <c r="H101" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="15"/>
+      <c r="B102" s="15"/>
       <c r="C102" s="1" t="s">
         <v>99</v>
       </c>
@@ -2757,13 +2786,13 @@
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
-      <c r="H102" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="10"/>
-      <c r="B103" s="10"/>
+      <c r="H102" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="15"/>
+      <c r="B103" s="15"/>
       <c r="C103" s="1" t="s">
         <v>100</v>
       </c>
@@ -2773,13 +2802,13 @@
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
-      <c r="H103" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="10"/>
-      <c r="B104" s="10"/>
+      <c r="H103" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="15"/>
+      <c r="B104" s="15"/>
       <c r="C104" s="1" t="s">
         <v>199</v>
       </c>
@@ -2789,14 +2818,14 @@
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
-      <c r="H104" s="5" t="s">
-        <v>187</v>
+      <c r="H104" s="13" t="s">
+        <v>202</v>
       </c>
       <c r="I104" s="9"/>
     </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="10"/>
-      <c r="B105" s="10" t="s">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="15"/>
+      <c r="B105" s="15" t="s">
         <v>101</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -2812,9 +2841,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="10"/>
-      <c r="B106" s="10"/>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="15"/>
+      <c r="B106" s="15"/>
       <c r="C106" s="1" t="s">
         <v>103</v>
       </c>
@@ -2828,9 +2857,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="10"/>
-      <c r="B107" s="10"/>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="15"/>
+      <c r="B107" s="15"/>
       <c r="C107" s="1" t="s">
         <v>199</v>
       </c>
@@ -2844,9 +2873,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="10"/>
-      <c r="B108" s="10" t="s">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="15"/>
+      <c r="B108" s="15" t="s">
         <v>104</v>
       </c>
       <c r="C108" s="1" t="s">
@@ -2862,9 +2891,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="10"/>
-      <c r="B109" s="10"/>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="15"/>
+      <c r="B109" s="15"/>
       <c r="C109" s="1" t="s">
         <v>106</v>
       </c>
@@ -2878,9 +2907,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="10"/>
-      <c r="B110" s="10"/>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="15"/>
+      <c r="B110" s="15"/>
       <c r="C110" s="1" t="s">
         <v>107</v>
       </c>
@@ -2894,9 +2923,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="10"/>
-      <c r="B111" s="10"/>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="15"/>
+      <c r="B111" s="15"/>
       <c r="C111" s="1" t="s">
         <v>199</v>
       </c>
@@ -2910,8 +2939,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="10"/>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="15"/>
       <c r="B112" s="8" t="s">
         <v>195</v>
       </c>
@@ -2928,11 +2957,11 @@
         <v>187</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="10" t="s">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="15" t="s">
         <v>109</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -2944,13 +2973,13 @@
         <v>5</v>
       </c>
       <c r="G113" s="1"/>
-      <c r="H113" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" s="10"/>
-      <c r="B114" s="10"/>
+      <c r="H113" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="15"/>
+      <c r="B114" s="15"/>
       <c r="C114" s="1" t="s">
         <v>111</v>
       </c>
@@ -2960,13 +2989,13 @@
         <v>5</v>
       </c>
       <c r="G114" s="1"/>
-      <c r="H114" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="10"/>
-      <c r="B115" s="10"/>
+      <c r="H114" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="15"/>
+      <c r="B115" s="15"/>
       <c r="C115" s="1" t="s">
         <v>112</v>
       </c>
@@ -2976,13 +3005,13 @@
         <v>5</v>
       </c>
       <c r="G115" s="1"/>
-      <c r="H115" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="10"/>
-      <c r="B116" s="10"/>
+      <c r="H115" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="15"/>
+      <c r="B116" s="15"/>
       <c r="C116" s="1" t="s">
         <v>123</v>
       </c>
@@ -2992,13 +3021,13 @@
         <v>5</v>
       </c>
       <c r="G116" s="1"/>
-      <c r="H116" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" s="10"/>
-      <c r="B117" s="10"/>
+      <c r="H116" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="15"/>
+      <c r="B117" s="15"/>
       <c r="C117" s="1" t="s">
         <v>124</v>
       </c>
@@ -3008,13 +3037,13 @@
         <v>5</v>
       </c>
       <c r="G117" s="1"/>
-      <c r="H117" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="10"/>
-      <c r="B118" s="10"/>
+      <c r="H117" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="15"/>
+      <c r="B118" s="15"/>
       <c r="C118" s="1" t="s">
         <v>199</v>
       </c>
@@ -3024,13 +3053,13 @@
         <v>80</v>
       </c>
       <c r="G118" s="1"/>
-      <c r="H118" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="10"/>
-      <c r="B119" s="10" t="s">
+      <c r="H118" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="15"/>
+      <c r="B119" s="15" t="s">
         <v>113</v>
       </c>
       <c r="C119" s="1" t="s">
@@ -3042,13 +3071,13 @@
       <c r="G119" s="1">
         <v>5</v>
       </c>
-      <c r="H119" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="10"/>
-      <c r="B120" s="10"/>
+      <c r="H119" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="15"/>
+      <c r="B120" s="15"/>
       <c r="C120" s="1" t="s">
         <v>115</v>
       </c>
@@ -3058,13 +3087,13 @@
       <c r="G120" s="1">
         <v>5</v>
       </c>
-      <c r="H120" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="10"/>
-      <c r="B121" s="10"/>
+      <c r="H120" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="15"/>
+      <c r="B121" s="15"/>
       <c r="C121" s="1" t="s">
         <v>116</v>
       </c>
@@ -3074,13 +3103,13 @@
       <c r="G121" s="1">
         <v>5</v>
       </c>
-      <c r="H121" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="10"/>
-      <c r="B122" s="10"/>
+      <c r="H121" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="15"/>
+      <c r="B122" s="15"/>
       <c r="C122" s="1" t="s">
         <v>117</v>
       </c>
@@ -3090,13 +3119,13 @@
       <c r="G122" s="1">
         <v>5</v>
       </c>
-      <c r="H122" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="10"/>
-      <c r="B123" s="10"/>
+      <c r="H122" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="15"/>
+      <c r="B123" s="15"/>
       <c r="C123" s="1" t="s">
         <v>118</v>
       </c>
@@ -3106,13 +3135,13 @@
       <c r="G123" s="1">
         <v>5</v>
       </c>
-      <c r="H123" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="10"/>
-      <c r="B124" s="10"/>
+      <c r="H123" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="15"/>
+      <c r="B124" s="15"/>
       <c r="C124" s="1" t="s">
         <v>119</v>
       </c>
@@ -3122,13 +3151,13 @@
       <c r="G124" s="1">
         <v>5</v>
       </c>
-      <c r="H124" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="10"/>
-      <c r="B125" s="10"/>
+      <c r="H124" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="15"/>
+      <c r="B125" s="15"/>
       <c r="C125" s="1" t="s">
         <v>120</v>
       </c>
@@ -3138,13 +3167,13 @@
       <c r="G125" s="1">
         <v>5</v>
       </c>
-      <c r="H125" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="10"/>
-      <c r="B126" s="10"/>
+      <c r="H125" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="15"/>
+      <c r="B126" s="15"/>
       <c r="C126" s="1" t="s">
         <v>121</v>
       </c>
@@ -3154,13 +3183,13 @@
       <c r="G126" s="1">
         <v>5</v>
       </c>
-      <c r="H126" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="10"/>
-      <c r="B127" s="10"/>
+      <c r="H126" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="15"/>
+      <c r="B127" s="15"/>
       <c r="C127" s="1" t="s">
         <v>122</v>
       </c>
@@ -3170,13 +3199,13 @@
       <c r="G127" s="1">
         <v>5</v>
       </c>
-      <c r="H127" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="10"/>
-      <c r="B128" s="10"/>
+      <c r="H127" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="15"/>
+      <c r="B128" s="15"/>
       <c r="C128" s="1" t="s">
         <v>125</v>
       </c>
@@ -3186,13 +3215,13 @@
       <c r="G128" s="1">
         <v>5</v>
       </c>
-      <c r="H128" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" s="10"/>
-      <c r="B129" s="10"/>
+      <c r="H128" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="15"/>
+      <c r="B129" s="15"/>
       <c r="C129" s="1" t="s">
         <v>126</v>
       </c>
@@ -3202,13 +3231,13 @@
       <c r="G129" s="1">
         <v>5</v>
       </c>
-      <c r="H129" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="10"/>
-      <c r="B130" s="10"/>
+      <c r="H129" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="15"/>
+      <c r="B130" s="15"/>
       <c r="C130" s="1" t="s">
         <v>127</v>
       </c>
@@ -3218,13 +3247,13 @@
       <c r="G130" s="1">
         <v>5</v>
       </c>
-      <c r="H130" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" s="10"/>
-      <c r="B131" s="10"/>
+      <c r="H130" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="15"/>
+      <c r="B131" s="15"/>
       <c r="C131" s="1" t="s">
         <v>128</v>
       </c>
@@ -3234,13 +3263,13 @@
       <c r="G131" s="1">
         <v>5</v>
       </c>
-      <c r="H131" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132" s="10"/>
-      <c r="B132" s="10"/>
+      <c r="H131" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="15"/>
+      <c r="B132" s="15"/>
       <c r="C132" s="1" t="s">
         <v>199</v>
       </c>
@@ -3250,12 +3279,12 @@
       <c r="G132" s="1">
         <v>120</v>
       </c>
-      <c r="H132" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="10"/>
+      <c r="H132" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="15"/>
       <c r="B133" s="1" t="s">
         <v>129</v>
       </c>
@@ -3266,13 +3295,13 @@
         <v>5</v>
       </c>
       <c r="G133" s="1"/>
-      <c r="H133" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" s="10"/>
-      <c r="B134" s="10" t="s">
+      <c r="H133" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="15"/>
+      <c r="B134" s="15" t="s">
         <v>138</v>
       </c>
       <c r="C134" s="1" t="s">
@@ -3284,13 +3313,13 @@
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
-      <c r="H134" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" s="10"/>
-      <c r="B135" s="10"/>
+      <c r="H134" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="15"/>
+      <c r="B135" s="15"/>
       <c r="C135" s="1" t="s">
         <v>131</v>
       </c>
@@ -3300,13 +3329,13 @@
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
-      <c r="H135" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136" s="10"/>
-      <c r="B136" s="10"/>
+      <c r="H135" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="15"/>
+      <c r="B136" s="15"/>
       <c r="C136" s="1" t="s">
         <v>132</v>
       </c>
@@ -3316,13 +3345,13 @@
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
-      <c r="H136" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137" s="10"/>
-      <c r="B137" s="10"/>
+      <c r="H136" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="15"/>
+      <c r="B137" s="15"/>
       <c r="C137" s="1" t="s">
         <v>133</v>
       </c>
@@ -3332,13 +3361,13 @@
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
-      <c r="H137" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138" s="10"/>
-      <c r="B138" s="10"/>
+      <c r="H137" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="15"/>
+      <c r="B138" s="15"/>
       <c r="C138" s="1" t="s">
         <v>134</v>
       </c>
@@ -3348,13 +3377,13 @@
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
-      <c r="H138" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="A139" s="10"/>
-      <c r="B139" s="10"/>
+      <c r="H138" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="15"/>
+      <c r="B139" s="15"/>
       <c r="C139" s="1" t="s">
         <v>135</v>
       </c>
@@ -3364,13 +3393,13 @@
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
-      <c r="H139" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140" s="10"/>
-      <c r="B140" s="10"/>
+      <c r="H139" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="15"/>
+      <c r="B140" s="15"/>
       <c r="C140" s="1" t="s">
         <v>136</v>
       </c>
@@ -3380,13 +3409,13 @@
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
-      <c r="H140" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" s="10"/>
-      <c r="B141" s="10"/>
+      <c r="H140" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="15"/>
+      <c r="B141" s="15"/>
       <c r="C141" s="1" t="s">
         <v>137</v>
       </c>
@@ -3396,13 +3425,13 @@
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
-      <c r="H141" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" s="10"/>
-      <c r="B142" s="10"/>
+      <c r="H141" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="15"/>
+      <c r="B142" s="15"/>
       <c r="C142" s="1" t="s">
         <v>139</v>
       </c>
@@ -3412,13 +3441,13 @@
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
-      <c r="H142" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="A143" s="10"/>
-      <c r="B143" s="10"/>
+      <c r="H142" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="15"/>
+      <c r="B143" s="15"/>
       <c r="C143" s="1" t="s">
         <v>140</v>
       </c>
@@ -3428,13 +3457,13 @@
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
-      <c r="H143" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" s="10"/>
-      <c r="B144" s="10"/>
+      <c r="H143" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="15"/>
+      <c r="B144" s="15"/>
       <c r="C144" s="1" t="s">
         <v>141</v>
       </c>
@@ -3444,13 +3473,13 @@
       </c>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
-      <c r="H144" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" s="10"/>
-      <c r="B145" s="10"/>
+      <c r="H144" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="15"/>
+      <c r="B145" s="15"/>
       <c r="C145" s="1" t="s">
         <v>142</v>
       </c>
@@ -3460,13 +3489,13 @@
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
-      <c r="H145" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" s="10"/>
-      <c r="B146" s="10"/>
+      <c r="H145" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="15"/>
+      <c r="B146" s="15"/>
       <c r="C146" s="1" t="s">
         <v>143</v>
       </c>
@@ -3476,13 +3505,13 @@
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
-      <c r="H146" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="A147" s="10"/>
-      <c r="B147" s="10"/>
+      <c r="H146" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="15"/>
+      <c r="B147" s="15"/>
       <c r="C147" s="1" t="s">
         <v>199</v>
       </c>
@@ -3494,12 +3523,12 @@
       </c>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
-      <c r="H147" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148" s="10"/>
+      <c r="H147" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="15"/>
       <c r="B148" s="8" t="s">
         <v>195</v>
       </c>
@@ -3516,8 +3545,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
-      <c r="A149" s="10" t="s">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="15" t="s">
         <v>144</v>
       </c>
       <c r="B149" s="1" t="s">
@@ -3534,9 +3563,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
-      <c r="A150" s="10"/>
-      <c r="B150" s="10" t="s">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="15"/>
+      <c r="B150" s="15" t="s">
         <v>146</v>
       </c>
       <c r="C150" s="1" t="s">
@@ -3552,9 +3581,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
-      <c r="A151" s="10"/>
-      <c r="B151" s="10"/>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="15"/>
+      <c r="B151" s="15"/>
       <c r="C151" s="1" t="s">
         <v>148</v>
       </c>
@@ -3568,9 +3597,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
-      <c r="A152" s="10"/>
-      <c r="B152" s="10"/>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="15"/>
+      <c r="B152" s="15"/>
       <c r="C152" s="1" t="s">
         <v>149</v>
       </c>
@@ -3584,9 +3613,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
-      <c r="A153" s="10"/>
-      <c r="B153" s="10"/>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="15"/>
+      <c r="B153" s="15"/>
       <c r="C153" s="1" t="s">
         <v>150</v>
       </c>
@@ -3600,9 +3629,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
-      <c r="A154" s="10"/>
-      <c r="B154" s="10"/>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="15"/>
+      <c r="B154" s="15"/>
       <c r="C154" s="1" t="s">
         <v>199</v>
       </c>
@@ -3616,8 +3645,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
-      <c r="A155" s="10"/>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="15"/>
       <c r="B155" s="8" t="s">
         <v>195</v>
       </c>
@@ -3630,8 +3659,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
-      <c r="A156" s="13" t="s">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="11" t="s">
         <v>151</v>
       </c>
       <c r="B156" s="1" t="s">
@@ -3648,8 +3677,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
-      <c r="A157" s="13"/>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="11"/>
       <c r="B157" s="1" t="s">
         <v>153</v>
       </c>
@@ -3664,8 +3693,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
-      <c r="A158" s="13"/>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="11"/>
       <c r="B158" s="1" t="s">
         <v>154</v>
       </c>
@@ -3680,8 +3709,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
-      <c r="A159" s="13"/>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="11"/>
       <c r="B159" s="1" t="s">
         <v>155</v>
       </c>
@@ -3696,8 +3725,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
-      <c r="A160" s="13"/>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="11"/>
       <c r="B160" s="1" t="s">
         <v>156</v>
       </c>
@@ -3712,8 +3741,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
-      <c r="A161" s="13"/>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="11"/>
       <c r="B161" s="1" t="s">
         <v>199</v>
       </c>
@@ -3726,7 +3755,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="5"/>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="8" t="s">
         <v>195</v>
@@ -3742,8 +3771,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
-      <c r="A163" s="10" t="s">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="15" t="s">
         <v>157</v>
       </c>
       <c r="B163" s="1" t="s">
@@ -3762,8 +3791,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
-      <c r="A164" s="10"/>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="15"/>
       <c r="B164" s="1" t="s">
         <v>159</v>
       </c>
@@ -3780,8 +3809,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
-      <c r="A165" s="10"/>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="15"/>
       <c r="B165" s="1" t="s">
         <v>199</v>
       </c>
@@ -3794,8 +3823,8 @@
       </c>
       <c r="H165" s="5"/>
     </row>
-    <row r="166" spans="1:8">
-      <c r="A166" s="10"/>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="15"/>
       <c r="B166" s="8" t="s">
         <v>195</v>
       </c>
@@ -3810,8 +3839,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
-      <c r="A167" s="13" t="s">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="11" t="s">
         <v>162</v>
       </c>
       <c r="B167" s="1" t="s">
@@ -3830,9 +3859,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
-      <c r="B168" s="10" t="s">
+      <c r="B168" s="15" t="s">
         <v>165</v>
       </c>
       <c r="C168" s="1" t="s">
@@ -3848,9 +3877,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
-      <c r="A169" s="13"/>
-      <c r="B169" s="10"/>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="11"/>
+      <c r="B169" s="15"/>
       <c r="C169" s="1" t="s">
         <v>167</v>
       </c>
@@ -3864,9 +3893,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
-      <c r="A170" s="13"/>
-      <c r="B170" s="10"/>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="11"/>
+      <c r="B170" s="15"/>
       <c r="C170" s="1" t="s">
         <v>168</v>
       </c>
@@ -3880,9 +3909,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
-      <c r="A171" s="13"/>
-      <c r="B171" s="10"/>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="11"/>
+      <c r="B171" s="15"/>
       <c r="C171" s="1" t="s">
         <v>169</v>
       </c>
@@ -3896,8 +3925,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
-      <c r="A172" s="13"/>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="11"/>
       <c r="B172" s="1" t="s">
         <v>170</v>
       </c>
@@ -3914,8 +3943,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
-      <c r="A173" s="13"/>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="11"/>
       <c r="B173" s="1" t="s">
         <v>172</v>
       </c>
@@ -3930,8 +3959,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
-      <c r="A174" s="13"/>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="11"/>
       <c r="B174" s="1" t="s">
         <v>173</v>
       </c>
@@ -3946,8 +3975,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
-      <c r="A175" s="13"/>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="11"/>
       <c r="B175" s="1" t="s">
         <v>174</v>
       </c>
@@ -3962,8 +3991,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
-      <c r="A176" s="13"/>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="11"/>
       <c r="B176" s="1" t="s">
         <v>199</v>
       </c>
@@ -3980,7 +4009,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="8" t="s">
         <v>195</v>
@@ -3996,11 +4025,11 @@
         <v>187</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
-      <c r="A178" s="13" t="s">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="B178" s="10" t="s">
+      <c r="B178" s="15" t="s">
         <v>176</v>
       </c>
       <c r="C178" s="1" t="s">
@@ -4016,9 +4045,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
-      <c r="A179" s="13"/>
-      <c r="B179" s="10"/>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="11"/>
+      <c r="B179" s="15"/>
       <c r="C179" s="1" t="s">
         <v>178</v>
       </c>
@@ -4032,8 +4061,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
-      <c r="A180" s="13"/>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="11"/>
       <c r="B180" s="1" t="s">
         <v>179</v>
       </c>
@@ -4050,9 +4079,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
-      <c r="A181" s="13"/>
-      <c r="B181" s="10" t="s">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="11"/>
+      <c r="B181" s="15" t="s">
         <v>181</v>
       </c>
       <c r="C181" s="1" t="s">
@@ -4068,9 +4097,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
-      <c r="A182" s="13"/>
-      <c r="B182" s="10"/>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="11"/>
+      <c r="B182" s="15"/>
       <c r="C182" s="1" t="s">
         <v>183</v>
       </c>
@@ -4084,9 +4113,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
-      <c r="A183" s="13"/>
-      <c r="B183" s="10"/>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="11"/>
+      <c r="B183" s="15"/>
       <c r="C183" s="1" t="s">
         <v>184</v>
       </c>
@@ -4100,8 +4129,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
-      <c r="A184" s="13"/>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="11"/>
       <c r="B184" s="1" t="s">
         <v>185</v>
       </c>
@@ -4116,8 +4145,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
-      <c r="A185" s="13"/>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="11"/>
       <c r="B185" s="1" t="s">
         <v>186</v>
       </c>
@@ -4134,8 +4163,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
-      <c r="A186" s="13"/>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="11"/>
       <c r="B186" s="1" t="s">
         <v>199</v>
       </c>
@@ -4152,7 +4181,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>191</v>
       </c>
@@ -4170,7 +4199,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
@@ -4190,9 +4219,9 @@
         <f>SUM(G2:G187)</f>
         <v>898</v>
       </c>
-      <c r="H188" s="14"/>
-    </row>
-    <row r="189" spans="1:8">
+      <c r="H188" s="12"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="6" t="s">
@@ -4204,9 +4233,9 @@
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
       <c r="G189" s="6"/>
-      <c r="H189" s="14"/>
-    </row>
-    <row r="190" spans="1:8">
+      <c r="H189" s="12"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="6" t="s">
@@ -4219,9 +4248,9 @@
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
       <c r="G190" s="6"/>
-      <c r="H190" s="14"/>
-    </row>
-    <row r="192" spans="1:8" ht="14.1" customHeight="1"/>
+      <c r="H190" s="12"/>
+    </row>
+    <row r="192" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="36">
     <mergeCell ref="A87:A112"/>
